--- a/T3/P1/resultados_tarea3_p1_reconstruido.xlsx
+++ b/T3/P1/resultados_tarea3_p1_reconstruido.xlsx
@@ -512,7 +512,7 @@
         <v>2.938931912800143</v>
       </c>
       <c r="D3" t="n">
-        <v>20226246.08302724</v>
+        <v>20226246.08302725</v>
       </c>
       <c r="E3" t="n">
         <v>2742.937256902575</v>
@@ -541,16 +541,16 @@
         <v>19161706.8154995</v>
       </c>
       <c r="E4" t="n">
-        <v>2711.599619388243</v>
+        <v>2711.599619388244</v>
       </c>
       <c r="F4" t="n">
-        <v>13669.13050035026</v>
+        <v>13669.13050035025</v>
       </c>
       <c r="G4" t="n">
         <v>101623.2608864772</v>
       </c>
       <c r="H4" t="n">
-        <v>1143.323427367625</v>
+        <v>1143.323427367624</v>
       </c>
     </row>
     <row r="5">
@@ -561,19 +561,19 @@
         <v>1886.21183974432</v>
       </c>
       <c r="C5" t="n">
-        <v>5.240194336328178</v>
+        <v>5.240194336328186</v>
       </c>
       <c r="D5" t="n">
-        <v>18097167.54797175</v>
+        <v>18097167.54797174</v>
       </c>
       <c r="E5" t="n">
-        <v>2671.274409091133</v>
+        <v>2671.274409091132</v>
       </c>
       <c r="F5" t="n">
         <v>13211.78360307813</v>
       </c>
       <c r="G5" t="n">
-        <v>99852.88580026261</v>
+        <v>99852.88580026258</v>
       </c>
       <c r="H5" t="n">
         <v>1085.515267537746</v>
